--- a/Graficos.xlsx
+++ b/Graficos.xlsx
@@ -41,9 +41,6 @@
     <t>lumc</t>
   </si>
   <si>
-    <t>acessos</t>
-  </si>
-  <si>
     <t>lower bound</t>
   </si>
   <si>
@@ -53,10 +50,13 @@
     <t>tempo grafo</t>
   </si>
   <si>
-    <t>tempo clique</t>
+    <t>grau medio</t>
   </si>
   <si>
-    <t>grau medio</t>
+    <t>Acessos</t>
+  </si>
+  <si>
+    <t>Tempo</t>
   </si>
 </sst>
 </file>
@@ -171,7 +171,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>acessos</c:v>
+                  <c:v>Acessos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -329,6 +329,7 @@
       <c:valAx>
         <c:axId val="464787488"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -493,7 +494,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tempo clique</c:v>
+                  <c:v>Tempo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1845,15 +1846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2170,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,7 +2214,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>921</v>
@@ -2231,7 +2232,7 @@
         <v>68576</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>279</v>
@@ -2251,7 +2252,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2271,7 +2272,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2291,7 +2292,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>19</v>
@@ -2311,7 +2312,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>3.8</v>
